--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2403.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2403.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063117047673149</v>
+        <v>1.18370258808136</v>
       </c>
       <c r="B1">
-        <v>2.252803090694079</v>
+        <v>2.313625812530518</v>
       </c>
       <c r="C1">
-        <v>8.293719893482553</v>
+        <v>4.902408599853516</v>
       </c>
       <c r="D1">
-        <v>1.823512803856614</v>
+        <v>2.510704278945923</v>
       </c>
       <c r="E1">
-        <v>0.9926085232385449</v>
+        <v>1.219971895217896</v>
       </c>
     </row>
   </sheetData>
